--- a/backend/DB/forms.xlsx
+++ b/backend/DB/forms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,60 +510,176 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>Karan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>def</t>
+          <t>Chavan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>usa</t>
+          <t>PLM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>qwer</t>
+          <t>Mary</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>afaf</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>afasf</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>afsaf</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>afasf</t>
-        </is>
+          <t>Site Visitor</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lomad</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NLM</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Site Sponser</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Lakshman</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>OLP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rome</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Engineer</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
